--- a/заказы/статистика филиалы/2024/01,24/04,01,24 ЗПФ/дв 04,01,24 лгрсч зпф от филиала.xlsx
+++ b/заказы/статистика филиалы/2024/01,24/04,01,24 ЗПФ/дв 04,01,24 лгрсч зпф от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\04,01,24 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\01,24\04,01,24 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDEDD84-614A-4E6B-8A98-56B74262F57C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFA23A9-047D-439D-BED2-A85D3D063D90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$Z$78</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -380,6 +380,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -6431,8 +6433,8 @@
   <dimension ref="A1:Z78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V55" sqref="V55"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -6445,7 +6447,7 @@
     <col min="10" max="10" width="9.33203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="1" style="2" customWidth="1"/>
     <col min="12" max="15" width="9.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="27.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" style="2" customWidth="1"/>
     <col min="17" max="18" width="5.33203125" style="2" customWidth="1"/>
     <col min="19" max="21" width="7.6640625" style="2" customWidth="1"/>
     <col min="22" max="22" width="28.1640625" style="2" customWidth="1"/>
